--- a/visualizations/lcoh_buildings.xlsx
+++ b/visualizations/lcoh_buildings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,1857 +517,1910 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>71.05070783920726</v>
+        <v>0.15</v>
       </c>
       <c r="C2" t="n">
-        <v>71.05070783920726</v>
+        <v>0.03</v>
       </c>
       <c r="D2" t="n">
-        <v>71.05070783920726</v>
+        <v>0.03</v>
       </c>
       <c r="E2" t="n">
-        <v>71.05070783920726</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>71.60459043712262</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>76.6829139583688</v>
+        <v>0.06</v>
       </c>
       <c r="H2" t="n">
-        <v>84.39479080473518</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>58.99785658296883</v>
+        <v>0.03</v>
       </c>
       <c r="J2" t="n">
-        <v>73.42601463240446</v>
+        <v>0.09</v>
       </c>
       <c r="K2" t="n">
-        <v>71.05070783920726</v>
+        <v>0.09</v>
       </c>
       <c r="L2" t="n">
-        <v>71.05070783920726</v>
+        <v>0.03</v>
       </c>
       <c r="M2" t="n">
-        <v>61.29448065872247</v>
+        <v>0.03</v>
       </c>
       <c r="N2" t="n">
-        <v>14.72864664758234</v>
+        <v>0.03</v>
       </c>
       <c r="O2" t="n">
-        <v>46.67711685692171</v>
+        <v>0.09</v>
       </c>
       <c r="P2" t="n">
-        <v>85.13122313711422</v>
+        <v>0.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>71.05070783920726</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>70.33122732384697</v>
+        <v>70.77444815751031</v>
       </c>
       <c r="C3" t="n">
-        <v>70.33122732384697</v>
+        <v>70.77444815751031</v>
       </c>
       <c r="D3" t="n">
-        <v>70.33122732384697</v>
+        <v>70.77444815751031</v>
       </c>
       <c r="E3" t="n">
-        <v>70.33122732384697</v>
+        <v>70.77444815751031</v>
       </c>
       <c r="F3" t="n">
-        <v>70.85805327857263</v>
+        <v>71.32617714661795</v>
       </c>
       <c r="G3" t="n">
-        <v>75.96343344300902</v>
+        <v>76.38475510751434</v>
       </c>
       <c r="H3" t="n">
-        <v>83.7112843151417</v>
+        <v>84.06664659965055</v>
       </c>
       <c r="I3" t="n">
-        <v>58.3007806078657</v>
+        <v>58.76846085172152</v>
       </c>
       <c r="J3" t="n">
-        <v>72.66425604244426</v>
+        <v>73.14051927215372</v>
       </c>
       <c r="K3" t="n">
-        <v>70.33122732384697</v>
+        <v>70.77444815751031</v>
       </c>
       <c r="L3" t="n">
-        <v>70.33122732384697</v>
+        <v>70.77444815751031</v>
       </c>
       <c r="M3" t="n">
-        <v>60.77645468766171</v>
+        <v>61.05615518341715</v>
       </c>
       <c r="N3" t="n">
-        <v>14.00916613222111</v>
+        <v>14.67137865746046</v>
       </c>
       <c r="O3" t="n">
-        <v>45.95763634156035</v>
+        <v>46.49562668127691</v>
       </c>
       <c r="P3" t="n">
-        <v>84.41174262175184</v>
+        <v>84.8002155325235</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.33122732384697</v>
+        <v>70.77444815751031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69.17244191426795</v>
+        <v>70.05776512952495</v>
       </c>
       <c r="C4" t="n">
-        <v>69.17244191426795</v>
+        <v>70.05776512952495</v>
       </c>
       <c r="D4" t="n">
-        <v>69.17244191426795</v>
+        <v>70.05776512952495</v>
       </c>
       <c r="E4" t="n">
-        <v>69.17244191426795</v>
+        <v>70.05776512952495</v>
       </c>
       <c r="F4" t="n">
-        <v>69.65569081208973</v>
+        <v>70.5825426772046</v>
       </c>
       <c r="G4" t="n">
-        <v>74.80464803343119</v>
+        <v>75.66807207952951</v>
       </c>
       <c r="H4" t="n">
-        <v>82.61043817604174</v>
+        <v>83.38579772306325</v>
       </c>
       <c r="I4" t="n">
-        <v>57.17807964227796</v>
+        <v>58.07409525055916</v>
       </c>
       <c r="J4" t="n">
-        <v>71.43737814815539</v>
+        <v>72.38172255536824</v>
       </c>
       <c r="K4" t="n">
-        <v>69.17244191426795</v>
+        <v>70.05776512952495</v>
       </c>
       <c r="L4" t="n">
-        <v>69.17244191426795</v>
+        <v>70.05776512952495</v>
       </c>
       <c r="M4" t="n">
-        <v>59.9421291927657</v>
+        <v>60.54014340326635</v>
       </c>
       <c r="N4" t="n">
-        <v>12.85038072264165</v>
+        <v>13.95469562947418</v>
       </c>
       <c r="O4" t="n">
-        <v>44.79885093198107</v>
+        <v>45.7789436532905</v>
       </c>
       <c r="P4" t="n">
-        <v>83.25295721217392</v>
+        <v>84.08353250453607</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.17244191426795</v>
+        <v>70.05776512952495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70.08128561753371</v>
+        <v>68.90348531458589</v>
       </c>
       <c r="C5" t="n">
-        <v>70.08128561753371</v>
+        <v>68.90348531458589</v>
       </c>
       <c r="D5" t="n">
-        <v>70.08128561753371</v>
+        <v>68.90348531458589</v>
       </c>
       <c r="E5" t="n">
-        <v>70.08128561753371</v>
+        <v>68.90348531458589</v>
       </c>
       <c r="F5" t="n">
-        <v>70.59871231345913</v>
+        <v>69.38485524187026</v>
       </c>
       <c r="G5" t="n">
-        <v>75.71349173669635</v>
+        <v>74.51379226459161</v>
       </c>
       <c r="H5" t="n">
-        <v>83.47383969414484</v>
+        <v>82.28923189887125</v>
       </c>
       <c r="I5" t="n">
-        <v>58.05862205745698</v>
+        <v>56.955759575914</v>
       </c>
       <c r="J5" t="n">
-        <v>72.39962727528692</v>
+        <v>71.15961501322454</v>
       </c>
       <c r="K5" t="n">
-        <v>70.08128561753371</v>
+        <v>68.90348531458589</v>
       </c>
       <c r="L5" t="n">
-        <v>70.08128561753371</v>
+        <v>68.90348531458589</v>
       </c>
       <c r="M5" t="n">
-        <v>60.59649665911702</v>
+        <v>59.7090619365111</v>
       </c>
       <c r="N5" t="n">
-        <v>13.75922442590696</v>
+        <v>12.80041581453468</v>
       </c>
       <c r="O5" t="n">
-        <v>45.70769463524716</v>
+        <v>44.62466383835118</v>
       </c>
       <c r="P5" t="n">
-        <v>84.16180091544109</v>
+        <v>82.92925268959809</v>
       </c>
       <c r="Q5" t="n">
-        <v>70.08128561753371</v>
+        <v>68.90348531458589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70.49565541007745</v>
+        <v>69.80879524767803</v>
       </c>
       <c r="C6" t="n">
-        <v>70.49565541007745</v>
+        <v>69.80879524767803</v>
       </c>
       <c r="D6" t="n">
-        <v>70.49565541007745</v>
+        <v>69.80879524767803</v>
       </c>
       <c r="E6" t="n">
-        <v>70.49565541007745</v>
+        <v>69.80879524767803</v>
       </c>
       <c r="F6" t="n">
-        <v>71.02866481517411</v>
+        <v>70.32421008279778</v>
       </c>
       <c r="G6" t="n">
-        <v>76.12786152924079</v>
+        <v>75.41910219768319</v>
       </c>
       <c r="H6" t="n">
-        <v>83.86749099706191</v>
+        <v>83.14927633530942</v>
       </c>
       <c r="I6" t="n">
-        <v>58.46008842245705</v>
+        <v>57.832878262115</v>
       </c>
       <c r="J6" t="n">
-        <v>72.83834624286425</v>
+        <v>72.11812271897324</v>
       </c>
       <c r="K6" t="n">
-        <v>70.49565541007745</v>
+        <v>69.80879524767803</v>
       </c>
       <c r="L6" t="n">
-        <v>70.49565541007745</v>
+        <v>69.80879524767803</v>
       </c>
       <c r="M6" t="n">
-        <v>60.89484290974933</v>
+        <v>60.36088508833743</v>
       </c>
       <c r="N6" t="n">
-        <v>14.17359421845011</v>
+        <v>13.70572574762637</v>
       </c>
       <c r="O6" t="n">
-        <v>46.12206442779103</v>
+        <v>45.52997377144365</v>
       </c>
       <c r="P6" t="n">
-        <v>84.57617070798473</v>
+        <v>83.83456262269165</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.49565541007745</v>
+        <v>69.80879524767803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>70.06724057608389</v>
+        <v>70.22155388573121</v>
       </c>
       <c r="C7" t="n">
-        <v>70.06724057608389</v>
+        <v>70.22155388573121</v>
       </c>
       <c r="D7" t="n">
-        <v>70.06724057608389</v>
+        <v>70.22155388573121</v>
       </c>
       <c r="E7" t="n">
-        <v>70.06724057608389</v>
+        <v>70.22155388573121</v>
       </c>
       <c r="F7" t="n">
-        <v>70.58413909693478</v>
+        <v>70.75249084126231</v>
       </c>
       <c r="G7" t="n">
-        <v>75.6994466952459</v>
+        <v>75.83186083573703</v>
       </c>
       <c r="H7" t="n">
-        <v>83.4604969047668</v>
+        <v>83.54139704146046</v>
       </c>
       <c r="I7" t="n">
-        <v>58.04501437697775</v>
+        <v>58.23278364378949</v>
       </c>
       <c r="J7" t="n">
-        <v>72.38475691988009</v>
+        <v>72.55513585748815</v>
       </c>
       <c r="K7" t="n">
-        <v>70.06724057608389</v>
+        <v>70.22155388573121</v>
       </c>
       <c r="L7" t="n">
-        <v>70.06724057608389</v>
+        <v>70.22155388573121</v>
       </c>
       <c r="M7" t="n">
-        <v>60.58638422927202</v>
+        <v>60.65807130773651</v>
       </c>
       <c r="N7" t="n">
-        <v>13.7451793844565</v>
+        <v>14.11848438567896</v>
       </c>
       <c r="O7" t="n">
-        <v>45.69364959379693</v>
+        <v>45.94273240949695</v>
       </c>
       <c r="P7" t="n">
-        <v>84.14775587399004</v>
+        <v>84.2473212607447</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.06724057608389</v>
+        <v>70.22155388573121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74.73633017608863</v>
+        <v>69.79480481622153</v>
       </c>
       <c r="C8" t="n">
-        <v>74.73633017608863</v>
+        <v>69.79480481622153</v>
       </c>
       <c r="D8" t="n">
-        <v>74.73633017608863</v>
+        <v>69.79480481622153</v>
       </c>
       <c r="E8" t="n">
-        <v>74.73633017608863</v>
+        <v>69.79480481622153</v>
       </c>
       <c r="F8" t="n">
-        <v>75.51418210051607</v>
+        <v>70.30969352991943</v>
       </c>
       <c r="G8" t="n">
-        <v>80.81284433730855</v>
+        <v>75.40511176622603</v>
       </c>
       <c r="H8" t="n">
-        <v>89.22905615094464</v>
+        <v>83.13598542542503</v>
       </c>
       <c r="I8" t="n">
-        <v>55.26869223120425</v>
+        <v>57.8193234910802</v>
       </c>
       <c r="J8" t="n">
-        <v>78.40302513755502</v>
+        <v>72.10331018254917</v>
       </c>
       <c r="K8" t="n">
-        <v>74.73633017608863</v>
+        <v>69.79480481622153</v>
       </c>
       <c r="L8" t="n">
-        <v>74.73633017608863</v>
+        <v>69.79480481622153</v>
       </c>
       <c r="M8" t="n">
-        <v>64.7478832169794</v>
+        <v>60.35081197768761</v>
       </c>
       <c r="N8" t="n">
-        <v>13.97118856388833</v>
+        <v>13.69173531616923</v>
       </c>
       <c r="O8" t="n">
-        <v>65.84046960963968</v>
+        <v>45.51598333998673</v>
       </c>
       <c r="P8" t="n">
-        <v>89.927615579139</v>
+        <v>83.82057219123391</v>
       </c>
       <c r="Q8" t="n">
-        <v>74.73633017608863</v>
+        <v>69.79480481622153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70.31738818575404</v>
+        <v>74.41648520438665</v>
       </c>
       <c r="C9" t="n">
-        <v>70.31738818575404</v>
+        <v>74.41648520438665</v>
       </c>
       <c r="D9" t="n">
-        <v>70.31738818575404</v>
+        <v>74.41648520438665</v>
       </c>
       <c r="E9" t="n">
-        <v>70.31738818575404</v>
+        <v>74.41648520438665</v>
       </c>
       <c r="F9" t="n">
-        <v>70.8436937085667</v>
+        <v>75.19100819861146</v>
       </c>
       <c r="G9" t="n">
-        <v>75.94959430491697</v>
+        <v>80.46699404135043</v>
       </c>
       <c r="H9" t="n">
-        <v>83.69813713395537</v>
+        <v>88.84718745505937</v>
       </c>
       <c r="I9" t="n">
-        <v>58.28737241893661</v>
+        <v>55.03216184148555</v>
       </c>
       <c r="J9" t="n">
-        <v>72.6496036896776</v>
+        <v>78.06748801260673</v>
       </c>
       <c r="K9" t="n">
-        <v>70.31738818575404</v>
+        <v>74.41648520438665</v>
       </c>
       <c r="L9" t="n">
-        <v>70.31738818575404</v>
+        <v>74.41648520438665</v>
       </c>
       <c r="M9" t="n">
-        <v>60.76649050823624</v>
+        <v>64.47078525369295</v>
       </c>
       <c r="N9" t="n">
-        <v>13.99532699412826</v>
+        <v>13.91139683474761</v>
       </c>
       <c r="O9" t="n">
-        <v>45.94379720346792</v>
+        <v>65.55869576431542</v>
       </c>
       <c r="P9" t="n">
-        <v>84.39790348366076</v>
+        <v>89.54275729679671</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.31738818575404</v>
+        <v>74.41648520438665</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>70.97359682745218</v>
+        <v>70.04397980083098</v>
       </c>
       <c r="C10" t="n">
-        <v>70.97359682745218</v>
+        <v>70.04397980083098</v>
       </c>
       <c r="D10" t="n">
-        <v>70.97359682745218</v>
+        <v>70.04397980083098</v>
       </c>
       <c r="E10" t="n">
-        <v>70.97359682745218</v>
+        <v>70.04397980083098</v>
       </c>
       <c r="F10" t="n">
-        <v>71.52457960377849</v>
+        <v>70.56823894014333</v>
       </c>
       <c r="G10" t="n">
-        <v>76.60580294661419</v>
+        <v>75.65428675083641</v>
       </c>
       <c r="H10" t="n">
-        <v>84.32153534356596</v>
+        <v>83.37270166080594</v>
       </c>
       <c r="I10" t="n">
-        <v>58.9231467992246</v>
+        <v>58.06073919541055</v>
       </c>
       <c r="J10" t="n">
-        <v>73.34437242760448</v>
+        <v>72.36712717394549</v>
       </c>
       <c r="K10" t="n">
-        <v>70.97359682745218</v>
+        <v>70.04397980083098</v>
       </c>
       <c r="L10" t="n">
-        <v>70.97359682745218</v>
+        <v>70.04397980083098</v>
       </c>
       <c r="M10" t="n">
-        <v>61.23896073025752</v>
+        <v>60.53021796660812</v>
       </c>
       <c r="N10" t="n">
-        <v>14.65153563582599</v>
+        <v>13.94091030078029</v>
       </c>
       <c r="O10" t="n">
-        <v>46.60000584516534</v>
+        <v>45.76515832459703</v>
       </c>
       <c r="P10" t="n">
-        <v>85.0541121253584</v>
+        <v>84.06974717584393</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.97359682745218</v>
+        <v>70.04397980083098</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73.66954057737449</v>
+        <v>70.69763696913786</v>
       </c>
       <c r="C11" t="n">
-        <v>73.66954057737449</v>
+        <v>70.69763696913786</v>
       </c>
       <c r="D11" t="n">
-        <v>73.66954057737449</v>
+        <v>70.69763696913786</v>
       </c>
       <c r="E11" t="n">
-        <v>73.66954057737449</v>
+        <v>70.69763696913786</v>
       </c>
       <c r="F11" t="n">
-        <v>74.34195158773409</v>
+        <v>71.24647741175578</v>
       </c>
       <c r="G11" t="n">
-        <v>79.52424909755247</v>
+        <v>76.30794391914236</v>
       </c>
       <c r="H11" t="n">
-        <v>87.55018910904292</v>
+        <v>83.99367597069484</v>
       </c>
       <c r="I11" t="n">
-        <v>58.7629677263217</v>
+        <v>58.69404155489438</v>
       </c>
       <c r="J11" t="n">
-        <v>76.58889390623415</v>
+        <v>73.05919450894156</v>
       </c>
       <c r="K11" t="n">
-        <v>73.66954057737449</v>
+        <v>70.69763696913786</v>
       </c>
       <c r="L11" t="n">
-        <v>73.66954057737449</v>
+        <v>70.69763696913786</v>
       </c>
       <c r="M11" t="n">
-        <v>63.58054455203258</v>
+        <v>61.00085112778769</v>
       </c>
       <c r="N11" t="n">
-        <v>15.12245537558026</v>
+        <v>14.59456746908675</v>
       </c>
       <c r="O11" t="n">
-        <v>54.66405976023425</v>
+        <v>46.41881549290319</v>
       </c>
       <c r="P11" t="n">
-        <v>88.30631187782193</v>
+        <v>84.72340434415031</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.66954057737449</v>
+        <v>70.69763696913786</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>127.1645685059285</v>
+        <v>73.37210388717712</v>
       </c>
       <c r="C12" t="n">
-        <v>134.208594664102</v>
+        <v>73.37210388717712</v>
       </c>
       <c r="D12" t="n">
-        <v>120.1205423477558</v>
+        <v>73.37210388717712</v>
       </c>
       <c r="E12" t="n">
-        <v>127.1655484598847</v>
+        <v>73.37210388717712</v>
       </c>
       <c r="F12" t="n">
-        <v>127.9475896206183</v>
+        <v>74.04180007532111</v>
       </c>
       <c r="G12" t="n">
-        <v>136.359012277437</v>
+        <v>79.20317434594378</v>
       </c>
       <c r="H12" t="n">
-        <v>144.8676583160663</v>
+        <v>87.19671006912142</v>
       </c>
       <c r="I12" t="n">
-        <v>103.8008126678082</v>
+        <v>58.52571549847138</v>
       </c>
       <c r="J12" t="n">
-        <v>132.074390961941</v>
+        <v>76.27967048864785</v>
       </c>
       <c r="K12" t="n">
-        <v>127.8737748542507</v>
+        <v>73.37210388717712</v>
       </c>
       <c r="L12" t="n">
-        <v>127.1645685059285</v>
+        <v>73.37210388717712</v>
       </c>
       <c r="M12" t="n">
-        <v>111.2782998841575</v>
+        <v>63.32384162455008</v>
       </c>
       <c r="N12" t="n">
-        <v>35.22013079086565</v>
+        <v>15.0613992994962</v>
       </c>
       <c r="O12" t="n">
-        <v>98.82277472945962</v>
+        <v>54.44335664629589</v>
       </c>
       <c r="P12" t="n">
-        <v>150.1506779346934</v>
+        <v>87.94978003409624</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.1645685059285</v>
+        <v>73.37210388717712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>70.42266483456417</v>
+        <v>126.6511486030712</v>
       </c>
       <c r="C13" t="n">
-        <v>70.42266483456417</v>
+        <v>133.6667348957354</v>
       </c>
       <c r="D13" t="n">
-        <v>70.42266483456417</v>
+        <v>119.6355623104077</v>
       </c>
       <c r="E13" t="n">
-        <v>70.42266483456417</v>
+        <v>126.6521246005176</v>
       </c>
       <c r="F13" t="n">
-        <v>70.95292937038975</v>
+        <v>127.4310083133748</v>
       </c>
       <c r="G13" t="n">
-        <v>76.05487095372614</v>
+        <v>135.8084703170486</v>
       </c>
       <c r="H13" t="n">
-        <v>83.7981499503242</v>
+        <v>144.2827631685132</v>
       </c>
       <c r="I13" t="n">
-        <v>58.38937076504624</v>
+        <v>103.381722635242</v>
       </c>
       <c r="J13" t="n">
-        <v>72.76106659915435</v>
+        <v>131.5411479228278</v>
       </c>
       <c r="K13" t="n">
-        <v>70.42266483456417</v>
+        <v>127.3574915700385</v>
       </c>
       <c r="L13" t="n">
-        <v>70.42266483456417</v>
+        <v>126.6511486030712</v>
       </c>
       <c r="M13" t="n">
-        <v>60.8422896953792</v>
+        <v>110.829019911065</v>
       </c>
       <c r="N13" t="n">
-        <v>14.1006036429379</v>
+        <v>35.07793146331927</v>
       </c>
       <c r="O13" t="n">
-        <v>46.04907385227785</v>
+        <v>98.4237832493814</v>
       </c>
       <c r="P13" t="n">
-        <v>84.50318013247094</v>
+        <v>149.5444528880083</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.42266483456417</v>
+        <v>126.6511486030712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>73.90301832944419</v>
+        <v>70.14884711250184</v>
       </c>
       <c r="C14" t="n">
-        <v>73.90301832944419</v>
+        <v>70.14884711250184</v>
       </c>
       <c r="D14" t="n">
-        <v>73.90301832944419</v>
+        <v>70.14884711250184</v>
       </c>
       <c r="E14" t="n">
-        <v>73.90301832944419</v>
+        <v>70.14884711250184</v>
       </c>
       <c r="F14" t="n">
-        <v>74.58581078959243</v>
+        <v>70.67704987137492</v>
       </c>
       <c r="G14" t="n">
-        <v>79.75772684962348</v>
+        <v>75.7591540625063</v>
       </c>
       <c r="H14" t="n">
-        <v>87.7719929735094</v>
+        <v>83.47232560689245</v>
       </c>
       <c r="I14" t="n">
-        <v>58.9878490088263</v>
+        <v>58.16234095109221</v>
       </c>
       <c r="J14" t="n">
-        <v>76.83859346769651</v>
+        <v>72.47815669283641</v>
       </c>
       <c r="K14" t="n">
-        <v>73.90301832944419</v>
+        <v>70.14884711250184</v>
       </c>
       <c r="L14" t="n">
-        <v>73.90301832944419</v>
+        <v>70.14884711250184</v>
       </c>
       <c r="M14" t="n">
-        <v>63.74864853352205</v>
+        <v>60.6057224310108</v>
       </c>
       <c r="N14" t="n">
-        <v>15.35593312765081</v>
+        <v>14.04577761245065</v>
       </c>
       <c r="O14" t="n">
-        <v>54.89753751230428</v>
+        <v>45.87002563626768</v>
       </c>
       <c r="P14" t="n">
-        <v>88.53978962989252</v>
+        <v>84.17461448751484</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.90301832944419</v>
+        <v>70.14884711250184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>71.11254932683734</v>
+        <v>73.60463898575304</v>
       </c>
       <c r="C15" t="n">
-        <v>71.11254932683734</v>
+        <v>73.60463898575304</v>
       </c>
       <c r="D15" t="n">
-        <v>71.11254932683734</v>
+        <v>73.60463898575304</v>
       </c>
       <c r="E15" t="n">
-        <v>71.11254932683734</v>
+        <v>73.60463898575304</v>
       </c>
       <c r="F15" t="n">
-        <v>71.66875752361058</v>
+        <v>74.28467470915709</v>
       </c>
       <c r="G15" t="n">
-        <v>76.74475544599983</v>
+        <v>79.435709444521</v>
       </c>
       <c r="H15" t="n">
-        <v>84.45354021798371</v>
+        <v>87.41761841276883</v>
       </c>
       <c r="I15" t="n">
-        <v>59.0577723338074</v>
+        <v>58.74968883525198</v>
       </c>
       <c r="J15" t="n">
-        <v>73.49149004614206</v>
+        <v>76.52836190195939</v>
       </c>
       <c r="K15" t="n">
-        <v>71.11254932683734</v>
+        <v>73.60463898575304</v>
       </c>
       <c r="L15" t="n">
-        <v>71.11254932683734</v>
+        <v>73.60463898575304</v>
       </c>
       <c r="M15" t="n">
-        <v>61.33900652981573</v>
+        <v>63.49126689552403</v>
       </c>
       <c r="N15" t="n">
-        <v>14.7904881352098</v>
+        <v>15.29393439807296</v>
       </c>
       <c r="O15" t="n">
-        <v>46.73895834455016</v>
+        <v>54.67589174487212</v>
       </c>
       <c r="P15" t="n">
-        <v>85.19306462474451</v>
+        <v>88.18231513267305</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.11254932683734</v>
+        <v>73.60463898575304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>76.85400207960002</v>
+        <v>70.8360491927901</v>
       </c>
       <c r="C16" t="n">
-        <v>76.85400207960002</v>
+        <v>70.8360491927901</v>
       </c>
       <c r="D16" t="n">
-        <v>76.85400207960002</v>
+        <v>70.8360491927901</v>
       </c>
       <c r="E16" t="n">
-        <v>76.85400207960002</v>
+        <v>70.8360491927901</v>
       </c>
       <c r="F16" t="n">
-        <v>77.74975629687266</v>
+        <v>71.39009473835169</v>
       </c>
       <c r="G16" t="n">
-        <v>82.93051624082037</v>
+        <v>76.44635614279508</v>
       </c>
       <c r="H16" t="n">
-        <v>91.24084445928038</v>
+        <v>84.12516758316632</v>
       </c>
       <c r="I16" t="n">
-        <v>57.28873389107776</v>
+        <v>58.82814363786827</v>
       </c>
       <c r="J16" t="n">
-        <v>80.70492839222277</v>
+        <v>73.20574010409321</v>
       </c>
       <c r="K16" t="n">
-        <v>76.85400207960002</v>
+        <v>70.8360491927901</v>
       </c>
       <c r="L16" t="n">
-        <v>76.85400207960002</v>
+        <v>70.8360491927901</v>
       </c>
       <c r="M16" t="n">
-        <v>66.27260698750872</v>
+        <v>61.10050792881821</v>
       </c>
       <c r="N16" t="n">
-        <v>16.08886046739866</v>
+        <v>14.73297969273766</v>
       </c>
       <c r="O16" t="n">
-        <v>67.95814151315044</v>
+        <v>46.55722771655509</v>
       </c>
       <c r="P16" t="n">
-        <v>92.0452874826514</v>
+        <v>84.8618165678035</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.85400207960002</v>
+        <v>70.8360491927901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>108.4676357227471</v>
+        <v>76.52509422364271</v>
       </c>
       <c r="C17" t="n">
-        <v>114.9896832782797</v>
+        <v>76.52509422364271</v>
       </c>
       <c r="D17" t="n">
-        <v>101.9455881672111</v>
+        <v>76.52509422364271</v>
       </c>
       <c r="E17" t="n">
-        <v>108.4687684917764</v>
+        <v>76.52509422364271</v>
       </c>
       <c r="F17" t="n">
-        <v>109.1926331648801</v>
+        <v>77.41701493073897</v>
       </c>
       <c r="G17" t="n">
-        <v>116.0533755172541</v>
+        <v>82.57560306060692</v>
       </c>
       <c r="H17" t="n">
-        <v>122.5404495423678</v>
+        <v>90.85036602335255</v>
       </c>
       <c r="I17" t="n">
-        <v>89.06526285917721</v>
+        <v>57.04355843990077</v>
       </c>
       <c r="J17" t="n">
-        <v>112.6758319153885</v>
+        <v>80.3595399382138</v>
       </c>
       <c r="K17" t="n">
-        <v>109.1242882431349</v>
+        <v>76.52509422364271</v>
       </c>
       <c r="L17" t="n">
-        <v>108.4676357227471</v>
+        <v>76.52509422364271</v>
       </c>
       <c r="M17" t="n">
-        <v>94.68595075048202</v>
+        <v>65.98898374755842</v>
       </c>
       <c r="N17" t="n">
-        <v>32.61023777766344</v>
+        <v>16.02000585400263</v>
       </c>
       <c r="O17" t="n">
-        <v>84.9668347431794</v>
+        <v>67.66730478357086</v>
       </c>
       <c r="P17" t="n">
-        <v>127.4319852090166</v>
+        <v>91.65136631605377</v>
       </c>
       <c r="Q17" t="n">
-        <v>108.4676357227471</v>
+        <v>76.52509422364271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>75.71692747241339</v>
+        <v>108.0297036505494</v>
       </c>
       <c r="C18" t="n">
-        <v>75.71692747241339</v>
+        <v>114.5254188002732</v>
       </c>
       <c r="D18" t="n">
-        <v>75.71692747241339</v>
+        <v>101.5339885008221</v>
       </c>
       <c r="E18" t="n">
-        <v>75.71692747241339</v>
+        <v>108.0308318460864</v>
       </c>
       <c r="F18" t="n">
-        <v>76.54937457251579</v>
+        <v>108.7517739556607</v>
       </c>
       <c r="G18" t="n">
-        <v>81.79344163363294</v>
+        <v>115.5848164407409</v>
       </c>
       <c r="H18" t="n">
-        <v>90.16062358245269</v>
+        <v>122.045699263738</v>
       </c>
       <c r="I18" t="n">
-        <v>56.20408141347166</v>
+        <v>88.70566679289567</v>
       </c>
       <c r="J18" t="n">
-        <v>79.4689315719676</v>
+        <v>112.2209094841165</v>
       </c>
       <c r="K18" t="n">
-        <v>75.71692747241339</v>
+        <v>108.683704972752</v>
       </c>
       <c r="L18" t="n">
-        <v>75.71692747241339</v>
+        <v>108.0297036505494</v>
       </c>
       <c r="M18" t="n">
-        <v>65.45391327033357</v>
+        <v>94.30366146811797</v>
       </c>
       <c r="N18" t="n">
-        <v>14.95178586021295</v>
+        <v>32.4785757486197</v>
       </c>
       <c r="O18" t="n">
-        <v>66.8210669059638</v>
+        <v>84.62378585344166</v>
       </c>
       <c r="P18" t="n">
-        <v>90.90821287546325</v>
+        <v>126.9174856260303</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.71692747241339</v>
+        <v>108.0297036505494</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>73.42055285067099</v>
+        <v>75.39288589226467</v>
       </c>
       <c r="C19" t="n">
-        <v>73.42055285067099</v>
+        <v>75.39288589226467</v>
       </c>
       <c r="D19" t="n">
-        <v>73.42055285067099</v>
+        <v>75.39288589226467</v>
       </c>
       <c r="E19" t="n">
-        <v>73.42055285067099</v>
+        <v>75.39288589226467</v>
       </c>
       <c r="F19" t="n">
-        <v>74.08189276941692</v>
+        <v>76.22177041418658</v>
       </c>
       <c r="G19" t="n">
-        <v>79.27526137085086</v>
+        <v>81.44339472922809</v>
       </c>
       <c r="H19" t="n">
-        <v>87.31365076867577</v>
+        <v>89.77476810854303</v>
       </c>
       <c r="I19" t="n">
-        <v>58.52314753440935</v>
+        <v>55.96354788999155</v>
       </c>
       <c r="J19" t="n">
-        <v>76.32260675203476</v>
+        <v>79.12883274573495</v>
       </c>
       <c r="K19" t="n">
-        <v>73.42055285067099</v>
+        <v>75.39288589226467</v>
       </c>
       <c r="L19" t="n">
-        <v>73.42055285067099</v>
+        <v>75.39288589226467</v>
       </c>
       <c r="M19" t="n">
-        <v>63.40127338880531</v>
+        <v>65.17379374896548</v>
       </c>
       <c r="N19" t="n">
-        <v>14.87346764887797</v>
+        <v>14.88779752262551</v>
       </c>
       <c r="O19" t="n">
-        <v>54.41507203353137</v>
+        <v>66.5350964521928</v>
       </c>
       <c r="P19" t="n">
-        <v>88.05732415112008</v>
+        <v>90.51915798467422</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.42055285067099</v>
+        <v>75.39288589226467</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>118.5742222609031</v>
+        <v>73.12412143463104</v>
       </c>
       <c r="C20" t="n">
-        <v>124.5644575788235</v>
+        <v>73.12412143463104</v>
       </c>
       <c r="D20" t="n">
-        <v>112.5839869429829</v>
+        <v>73.12412143463104</v>
       </c>
       <c r="E20" t="n">
-        <v>118.5748987139047</v>
+        <v>73.12412143463104</v>
       </c>
       <c r="F20" t="n">
-        <v>119.1373912979845</v>
+        <v>73.78279123008062</v>
       </c>
       <c r="G20" t="n">
-        <v>127.4365268280342</v>
+        <v>78.95519189339956</v>
       </c>
       <c r="H20" t="n">
-        <v>136.2373071902905</v>
+        <v>86.96112673920382</v>
       </c>
       <c r="I20" t="n">
-        <v>100.4876847588313</v>
+        <v>58.28686356730243</v>
       </c>
       <c r="J20" t="n">
-        <v>122.2504398228852</v>
+        <v>76.01445845408632</v>
       </c>
       <c r="K20" t="n">
-        <v>119.0843018089296</v>
+        <v>73.12412143463104</v>
       </c>
       <c r="L20" t="n">
-        <v>118.5742222609031</v>
+        <v>73.12412143463104</v>
       </c>
       <c r="M20" t="n">
-        <v>104.0211941417474</v>
+        <v>63.14529425871615</v>
       </c>
       <c r="N20" t="n">
-        <v>29.95117658959898</v>
+        <v>14.81341684695131</v>
       </c>
       <c r="O20" t="n">
-        <v>79.22301545069074</v>
+        <v>54.19537419375042</v>
       </c>
       <c r="P20" t="n">
-        <v>140.7299836787294</v>
+        <v>87.7017975815518</v>
       </c>
       <c r="Q20" t="n">
-        <v>118.5742222609031</v>
+        <v>73.12412143463104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>73.06412133138197</v>
+        <v>118.1131814367442</v>
       </c>
       <c r="C21" t="n">
-        <v>73.06412133138197</v>
+        <v>124.0801254947666</v>
       </c>
       <c r="D21" t="n">
-        <v>73.06412133138197</v>
+        <v>112.146237378722</v>
       </c>
       <c r="E21" t="n">
-        <v>73.06412133138197</v>
+        <v>118.1138552595582</v>
       </c>
       <c r="F21" t="n">
-        <v>73.70961273399381</v>
+        <v>118.6741607574434</v>
       </c>
       <c r="G21" t="n">
-        <v>78.9188298515619</v>
+        <v>126.9410275514084</v>
       </c>
       <c r="H21" t="n">
-        <v>86.97504082535215</v>
+        <v>135.7075886798878</v>
       </c>
       <c r="I21" t="n">
-        <v>58.17983954693853</v>
+        <v>100.0969680911133</v>
       </c>
       <c r="J21" t="n">
-        <v>75.94141071400162</v>
+        <v>121.7751051130718</v>
       </c>
       <c r="K21" t="n">
-        <v>73.06412133138197</v>
+        <v>118.6212776911785</v>
       </c>
       <c r="L21" t="n">
-        <v>73.06412133138197</v>
+        <v>118.1131814367442</v>
       </c>
       <c r="M21" t="n">
-        <v>63.14464269491836</v>
+        <v>103.6167384669585</v>
       </c>
       <c r="N21" t="n">
-        <v>14.51703612958888</v>
+        <v>29.83472029010908</v>
       </c>
       <c r="O21" t="n">
-        <v>54.05864051424297</v>
+        <v>78.91498016579237</v>
       </c>
       <c r="P21" t="n">
-        <v>87.70089263183023</v>
+        <v>140.1827967234032</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.06412133138197</v>
+        <v>118.1131814367442</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>76.23997451314702</v>
+        <v>72.76912898786165</v>
       </c>
       <c r="C22" t="n">
-        <v>76.23997451314702</v>
+        <v>72.76912898786165</v>
       </c>
       <c r="D22" t="n">
-        <v>76.23997451314702</v>
+        <v>72.76912898786165</v>
       </c>
       <c r="E22" t="n">
-        <v>76.23997451314702</v>
+        <v>72.76912898786165</v>
       </c>
       <c r="F22" t="n">
-        <v>77.10154248190987</v>
+        <v>73.41201425468333</v>
       </c>
       <c r="G22" t="n">
-        <v>82.31648867436586</v>
+        <v>78.60019944663024</v>
       </c>
       <c r="H22" t="n">
-        <v>90.65751827114909</v>
+        <v>86.62388391477384</v>
       </c>
       <c r="I22" t="n">
-        <v>56.70301461015927</v>
+        <v>57.94494166681832</v>
       </c>
       <c r="J22" t="n">
-        <v>80.03748219749795</v>
+        <v>75.63480147394577</v>
       </c>
       <c r="K22" t="n">
-        <v>76.23997451314702</v>
+        <v>72.76912898786165</v>
       </c>
       <c r="L22" t="n">
-        <v>76.23997451314702</v>
+        <v>72.76912898786165</v>
       </c>
       <c r="M22" t="n">
-        <v>65.83050713966055</v>
+        <v>62.88969969704333</v>
       </c>
       <c r="N22" t="n">
-        <v>15.47483290094511</v>
+        <v>14.45842440018186</v>
       </c>
       <c r="O22" t="n">
-        <v>67.3441139466964</v>
+        <v>53.84038174698165</v>
       </c>
       <c r="P22" t="n">
-        <v>91.43125991619691</v>
+        <v>87.34680513478159</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.23997451314702</v>
+        <v>72.76912898786165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>73.22474544864458</v>
+        <v>75.91369447727605</v>
       </c>
       <c r="C23" t="n">
-        <v>73.22474544864458</v>
+        <v>75.91369447727605</v>
       </c>
       <c r="D23" t="n">
-        <v>73.22474544864458</v>
+        <v>75.91369447727605</v>
       </c>
       <c r="E23" t="n">
-        <v>73.22474544864458</v>
+        <v>75.91369447727605</v>
       </c>
       <c r="F23" t="n">
-        <v>73.87737890737749</v>
+        <v>76.77157524087458</v>
       </c>
       <c r="G23" t="n">
-        <v>79.07945396882437</v>
+        <v>81.96420331423876</v>
       </c>
       <c r="H23" t="n">
-        <v>87.12763373675089</v>
+        <v>90.2695362643033</v>
       </c>
       <c r="I23" t="n">
-        <v>58.33454960890677</v>
+        <v>56.46034582965221</v>
       </c>
       <c r="J23" t="n">
-        <v>76.11319484026193</v>
+        <v>79.69495017634785</v>
       </c>
       <c r="K23" t="n">
-        <v>73.22474544864458</v>
+        <v>75.91369447727605</v>
       </c>
       <c r="L23" t="n">
-        <v>73.22474544864458</v>
+        <v>75.91369447727605</v>
       </c>
       <c r="M23" t="n">
-        <v>63.26029205934751</v>
+        <v>65.54877593017244</v>
       </c>
       <c r="N23" t="n">
-        <v>14.67766024685064</v>
+        <v>15.40860610763543</v>
       </c>
       <c r="O23" t="n">
-        <v>54.21926463150469</v>
+        <v>67.05590503720316</v>
       </c>
       <c r="P23" t="n">
-        <v>87.86151674909399</v>
+        <v>91.03996656968562</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.22474544864458</v>
+        <v>75.91369447727605</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>70.38906262465092</v>
+        <v>72.92910459414631</v>
       </c>
       <c r="C24" t="n">
-        <v>70.38906262465092</v>
+        <v>72.92910459414631</v>
       </c>
       <c r="D24" t="n">
-        <v>70.38906262465092</v>
+        <v>72.92910459414631</v>
       </c>
       <c r="E24" t="n">
-        <v>70.38906262465092</v>
+        <v>72.92910459414631</v>
       </c>
       <c r="F24" t="n">
-        <v>70.91806352235859</v>
+        <v>73.57910308143299</v>
       </c>
       <c r="G24" t="n">
-        <v>76.02126874381274</v>
+        <v>78.76017505291476</v>
       </c>
       <c r="H24" t="n">
-        <v>83.76622785090606</v>
+        <v>86.77586074074354</v>
       </c>
       <c r="I24" t="n">
-        <v>58.35681492407381</v>
+        <v>58.09902709547933</v>
       </c>
       <c r="J24" t="n">
-        <v>72.72548985802389</v>
+        <v>75.80589203130987</v>
       </c>
       <c r="K24" t="n">
-        <v>70.38906262465092</v>
+        <v>72.92910459414631</v>
       </c>
       <c r="L24" t="n">
-        <v>70.38906262465092</v>
+        <v>72.92910459414631</v>
       </c>
       <c r="M24" t="n">
-        <v>60.8180961042415</v>
+        <v>63.00488213356837</v>
       </c>
       <c r="N24" t="n">
-        <v>14.06700143302371</v>
+        <v>14.61840000646567</v>
       </c>
       <c r="O24" t="n">
-        <v>46.01547164236339</v>
+        <v>54.00035735326541</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46957792255702</v>
+        <v>87.50678074106739</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.38906262465092</v>
+        <v>72.92910459414631</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>73.30785430184756</v>
+        <v>70.11537555485225</v>
       </c>
       <c r="C25" t="n">
-        <v>73.30785430184756</v>
+        <v>70.11537555485225</v>
       </c>
       <c r="D25" t="n">
-        <v>73.30785430184756</v>
+        <v>70.11537555485225</v>
       </c>
       <c r="E25" t="n">
-        <v>73.30785430184756</v>
+        <v>70.11537555485225</v>
       </c>
       <c r="F25" t="n">
-        <v>73.96418314645317</v>
+        <v>70.64231958889083</v>
       </c>
       <c r="G25" t="n">
-        <v>79.1625628220274</v>
+        <v>75.72568250485658</v>
       </c>
       <c r="H25" t="n">
-        <v>87.20658714729507</v>
+        <v>83.44052762712481</v>
       </c>
       <c r="I25" t="n">
-        <v>58.41459845865808</v>
+        <v>58.12991169388703</v>
       </c>
       <c r="J25" t="n">
-        <v>76.20207801655916</v>
+        <v>72.44271828135078</v>
       </c>
       <c r="K25" t="n">
-        <v>73.30785430184756</v>
+        <v>70.11537555485225</v>
       </c>
       <c r="L25" t="n">
-        <v>73.30785430184756</v>
+        <v>70.11537555485225</v>
       </c>
       <c r="M25" t="n">
-        <v>63.32013043365392</v>
+        <v>60.58162290950294</v>
       </c>
       <c r="N25" t="n">
-        <v>14.76076910005505</v>
+        <v>14.01230605480014</v>
       </c>
       <c r="O25" t="n">
-        <v>54.30237348470849</v>
+        <v>45.8365540786169</v>
       </c>
       <c r="P25" t="n">
-        <v>87.94462560229556</v>
+        <v>84.14114292986459</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.30785430184756</v>
+        <v>70.11537555485225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>76.10736226298954</v>
+        <v>73.01187789995711</v>
       </c>
       <c r="C26" t="n">
-        <v>76.10736226298954</v>
+        <v>73.01187789995711</v>
       </c>
       <c r="D26" t="n">
-        <v>76.10736226298954</v>
+        <v>73.01187789995711</v>
       </c>
       <c r="E26" t="n">
-        <v>76.10736226298954</v>
+        <v>73.01187789995711</v>
       </c>
       <c r="F26" t="n">
-        <v>76.96154698776337</v>
+        <v>73.6655568532007</v>
       </c>
       <c r="G26" t="n">
-        <v>82.18387642420937</v>
+        <v>78.84294835872562</v>
       </c>
       <c r="H26" t="n">
-        <v>90.53153663349974</v>
+        <v>86.85449538126515</v>
       </c>
       <c r="I26" t="n">
-        <v>56.57651613346786</v>
+        <v>58.17875275243296</v>
       </c>
       <c r="J26" t="n">
-        <v>79.89333306384843</v>
+        <v>75.89441634670521</v>
       </c>
       <c r="K26" t="n">
-        <v>76.10736226298954</v>
+        <v>73.01187789995711</v>
       </c>
       <c r="L26" t="n">
-        <v>76.10736226298954</v>
+        <v>73.01187789995711</v>
       </c>
       <c r="M26" t="n">
-        <v>65.73502631954818</v>
+        <v>63.06447891375241</v>
       </c>
       <c r="N26" t="n">
-        <v>15.3422206507889</v>
+        <v>14.70117331227792</v>
       </c>
       <c r="O26" t="n">
-        <v>67.21150169653966</v>
+        <v>54.08313065907705</v>
       </c>
       <c r="P26" t="n">
-        <v>91.29864766603964</v>
+        <v>87.5895540468768</v>
       </c>
       <c r="Q26" t="n">
-        <v>76.10736226298954</v>
+        <v>73.01187789995711</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>69.54244812257001</v>
+        <v>75.78164976048956</v>
       </c>
       <c r="C27" t="n">
-        <v>69.54244812257001</v>
+        <v>75.78164976048956</v>
       </c>
       <c r="D27" t="n">
-        <v>69.54244812257001</v>
+        <v>75.78164976048956</v>
       </c>
       <c r="E27" t="n">
-        <v>69.54244812257001</v>
+        <v>75.78164976048956</v>
       </c>
       <c r="F27" t="n">
-        <v>70.0396114013125</v>
+        <v>76.63217887776325</v>
       </c>
       <c r="G27" t="n">
-        <v>75.1746542417319</v>
+        <v>81.83215859745326</v>
       </c>
       <c r="H27" t="n">
-        <v>82.96194407392764</v>
+        <v>90.14409378335637</v>
       </c>
       <c r="I27" t="n">
-        <v>57.53656389993169</v>
+        <v>56.33438872155092</v>
       </c>
       <c r="J27" t="n">
-        <v>71.82912664098386</v>
+        <v>79.55141794983659</v>
       </c>
       <c r="K27" t="n">
-        <v>69.54244812257001</v>
+        <v>75.78164976048956</v>
       </c>
       <c r="L27" t="n">
-        <v>69.54244812257001</v>
+        <v>75.78164976048956</v>
       </c>
       <c r="M27" t="n">
-        <v>60.20853366274291</v>
+        <v>65.45370373408717</v>
       </c>
       <c r="N27" t="n">
-        <v>13.22038693094298</v>
+        <v>15.27656139085019</v>
       </c>
       <c r="O27" t="n">
-        <v>45.16885714028228</v>
+        <v>66.92386032041739</v>
       </c>
       <c r="P27" t="n">
-        <v>83.62296342047526</v>
+        <v>90.90792185289934</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.54244812257001</v>
+        <v>75.78164976048956</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>70.14406967230465</v>
+        <v>69.27205286308512</v>
       </c>
       <c r="C28" t="n">
-        <v>70.14406967230465</v>
+        <v>69.27205286308512</v>
       </c>
       <c r="D28" t="n">
-        <v>70.14406967230465</v>
+        <v>69.27205286308512</v>
       </c>
       <c r="E28" t="n">
-        <v>70.14406967230465</v>
+        <v>69.27205286308512</v>
       </c>
       <c r="F28" t="n">
-        <v>70.66385741308356</v>
+        <v>69.76728306933173</v>
       </c>
       <c r="G28" t="n">
-        <v>75.77627579146719</v>
+        <v>74.88235981308951</v>
       </c>
       <c r="H28" t="n">
-        <v>83.53348454617749</v>
+        <v>82.63937106994447</v>
       </c>
       <c r="I28" t="n">
-        <v>58.11945102400527</v>
+        <v>57.31284997346522</v>
       </c>
       <c r="J28" t="n">
-        <v>72.46610064324349</v>
+        <v>71.54984030780172</v>
       </c>
       <c r="K28" t="n">
-        <v>70.14406967230465</v>
+        <v>69.27205286308512</v>
       </c>
       <c r="L28" t="n">
-        <v>70.14406967230465</v>
+        <v>69.27205286308512</v>
       </c>
       <c r="M28" t="n">
-        <v>60.64170117855307</v>
+        <v>59.97443057143028</v>
       </c>
       <c r="N28" t="n">
-        <v>13.82200848067907</v>
+        <v>13.16898336303317</v>
       </c>
       <c r="O28" t="n">
-        <v>45.77047869001884</v>
+        <v>44.99323138684955</v>
       </c>
       <c r="P28" t="n">
-        <v>84.22458497021198</v>
+        <v>83.29782023809661</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.14406967230465</v>
+        <v>69.27205286308512</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>73.53369568727805</v>
+        <v>69.87133518520491</v>
       </c>
       <c r="C29" t="n">
-        <v>73.53369568727805</v>
+        <v>69.87133518520491</v>
       </c>
       <c r="D29" t="n">
-        <v>73.53369568727805</v>
+        <v>69.87133518520491</v>
       </c>
       <c r="E29" t="n">
-        <v>73.53369568727805</v>
+        <v>69.87133518520491</v>
       </c>
       <c r="F29" t="n">
-        <v>74.20006643515813</v>
+        <v>70.38910188495292</v>
       </c>
       <c r="G29" t="n">
-        <v>79.38840420745632</v>
+        <v>75.48164213520994</v>
       </c>
       <c r="H29" t="n">
-        <v>87.42113646345138</v>
+        <v>83.20868927596021</v>
       </c>
       <c r="I29" t="n">
-        <v>58.63212453961354</v>
+        <v>57.89347071320204</v>
       </c>
       <c r="J29" t="n">
-        <v>76.44361064398107</v>
+        <v>72.18433762488164</v>
       </c>
       <c r="K29" t="n">
-        <v>73.53369568727805</v>
+        <v>69.87133518520491</v>
       </c>
       <c r="L29" t="n">
-        <v>73.53369568727805</v>
+        <v>69.87133518520491</v>
       </c>
       <c r="M29" t="n">
-        <v>63.48273623116359</v>
+        <v>60.40591384335774</v>
       </c>
       <c r="N29" t="n">
-        <v>14.98661048548589</v>
+        <v>13.76826568515441</v>
       </c>
       <c r="O29" t="n">
-        <v>54.52821487013885</v>
+        <v>45.59251370897126</v>
       </c>
       <c r="P29" t="n">
-        <v>88.17046698772656</v>
+        <v>83.89710256021847</v>
       </c>
       <c r="Q29" t="n">
-        <v>73.53369568727805</v>
+        <v>69.87133518520491</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>72.84930768355785</v>
+        <v>73.23680746330125</v>
       </c>
       <c r="C30" t="n">
-        <v>72.84930768355785</v>
+        <v>73.23680746330125</v>
       </c>
       <c r="D30" t="n">
-        <v>72.84930768355785</v>
+        <v>73.23680746330125</v>
       </c>
       <c r="E30" t="n">
-        <v>72.84930768355785</v>
+        <v>73.23680746330125</v>
       </c>
       <c r="F30" t="n">
-        <v>73.48524752470783</v>
+        <v>73.90048777619096</v>
       </c>
       <c r="G30" t="n">
-        <v>78.70401620373515</v>
+        <v>79.06787792206818</v>
       </c>
       <c r="H30" t="n">
-        <v>86.77096785991687</v>
+        <v>87.06817846643942</v>
       </c>
       <c r="I30" t="n">
-        <v>57.97293517085006</v>
+        <v>58.39540058388334</v>
       </c>
       <c r="J30" t="n">
-        <v>75.71167202077206</v>
+        <v>76.13497379952022</v>
       </c>
       <c r="K30" t="n">
-        <v>72.84930768355785</v>
+        <v>73.23680746330125</v>
       </c>
       <c r="L30" t="n">
-        <v>72.84930768355785</v>
+        <v>73.23680746330125</v>
       </c>
       <c r="M30" t="n">
-        <v>62.98997686848336</v>
+        <v>63.22642819935989</v>
       </c>
       <c r="N30" t="n">
-        <v>14.30222248176297</v>
+        <v>14.92610287562238</v>
       </c>
       <c r="O30" t="n">
-        <v>53.84382686641634</v>
+        <v>54.30806022242104</v>
       </c>
       <c r="P30" t="n">
-        <v>87.48607898400471</v>
+        <v>87.81448361022142</v>
       </c>
       <c r="Q30" t="n">
-        <v>72.84930768355785</v>
+        <v>73.23680746330125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>117.8810470645299</v>
+        <v>72.55518263824405</v>
       </c>
       <c r="C31" t="n">
-        <v>124.2073712236623</v>
+        <v>72.55518263824405</v>
       </c>
       <c r="D31" t="n">
-        <v>111.5547229054</v>
+        <v>72.55518263824405</v>
       </c>
       <c r="E31" t="n">
-        <v>117.8818476102653</v>
+        <v>72.55518263824405</v>
       </c>
       <c r="F31" t="n">
-        <v>118.5842876947802</v>
+        <v>73.18855490750428</v>
       </c>
       <c r="G31" t="n">
-        <v>126.5059896914194</v>
+        <v>78.38625309701003</v>
       </c>
       <c r="H31" t="n">
-        <v>134.6986605124011</v>
+        <v>86.42063488263477</v>
       </c>
       <c r="I31" t="n">
-        <v>96.05896402584169</v>
+        <v>57.73887265568975</v>
       </c>
       <c r="J31" t="n">
-        <v>122.3694714276016</v>
+        <v>75.405990337967</v>
       </c>
       <c r="K31" t="n">
-        <v>118.5179937700718</v>
+        <v>72.55518263824405</v>
       </c>
       <c r="L31" t="n">
-        <v>117.8810470645299</v>
+        <v>72.55518263824405</v>
       </c>
       <c r="M31" t="n">
-        <v>103.2460964864693</v>
+        <v>62.73565832531703</v>
       </c>
       <c r="N31" t="n">
-        <v>31.6316207956567</v>
+        <v>14.24447805056248</v>
       </c>
       <c r="O31" t="n">
-        <v>90.98480073236897</v>
+        <v>53.62643539736155</v>
       </c>
       <c r="P31" t="n">
-        <v>139.4434036317491</v>
+        <v>87.13285878516258</v>
       </c>
       <c r="Q31" t="n">
-        <v>117.8810470645299</v>
+        <v>72.55518263824405</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>73.27832200668749</v>
+        <v>117.4051088653627</v>
       </c>
       <c r="C32" t="n">
-        <v>73.27832200668749</v>
+        <v>123.70589084106</v>
       </c>
       <c r="D32" t="n">
-        <v>73.27832200668749</v>
+        <v>111.1043268896678</v>
       </c>
       <c r="E32" t="n">
-        <v>73.27832200668749</v>
+        <v>117.405906178939</v>
       </c>
       <c r="F32" t="n">
-        <v>73.93333771530132</v>
+        <v>118.1055102005144</v>
       </c>
       <c r="G32" t="n">
-        <v>79.13303052686786</v>
+        <v>125.995228764053</v>
       </c>
       <c r="H32" t="n">
-        <v>87.17853146689214</v>
+        <v>134.1548221303122</v>
       </c>
       <c r="I32" t="n">
-        <v>58.38615351967736</v>
+        <v>95.67113127841705</v>
       </c>
       <c r="J32" t="n">
-        <v>76.17049384596784</v>
+        <v>121.8754114636413</v>
       </c>
       <c r="K32" t="n">
-        <v>73.27832200668749</v>
+        <v>118.0394839338556</v>
       </c>
       <c r="L32" t="n">
-        <v>73.27832200668749</v>
+        <v>117.4051088653627</v>
       </c>
       <c r="M32" t="n">
-        <v>63.29886718113847</v>
+        <v>102.8292460897645</v>
       </c>
       <c r="N32" t="n">
-        <v>14.73123680489396</v>
+        <v>31.50390987848114</v>
       </c>
       <c r="O32" t="n">
-        <v>54.27284118954771</v>
+        <v>90.6174546382301</v>
       </c>
       <c r="P32" t="n">
-        <v>87.91509330713666</v>
+        <v>138.8804086120839</v>
       </c>
       <c r="Q32" t="n">
-        <v>73.27832200668749</v>
+        <v>117.4051088653627</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>70.58630766924078</v>
+        <v>72.98246483980324</v>
       </c>
       <c r="C33" t="n">
-        <v>70.58630766924078</v>
+        <v>72.98246483980324</v>
       </c>
       <c r="D33" t="n">
-        <v>70.58630766924078</v>
+        <v>72.98246483980324</v>
       </c>
       <c r="E33" t="n">
-        <v>70.58630766924078</v>
+        <v>72.98246483980324</v>
       </c>
       <c r="F33" t="n">
-        <v>71.12272612542104</v>
+        <v>73.63483595876887</v>
       </c>
       <c r="G33" t="n">
-        <v>76.21851378840476</v>
+        <v>78.81353529857226</v>
       </c>
       <c r="H33" t="n">
-        <v>83.95361064326649</v>
+        <v>86.8265529741181</v>
       </c>
       <c r="I33" t="n">
-        <v>58.54791778072728</v>
+        <v>58.15042265831806</v>
       </c>
       <c r="J33" t="n">
-        <v>72.93432540510993</v>
+        <v>75.8629596954535</v>
       </c>
       <c r="K33" t="n">
-        <v>70.58630766924078</v>
+        <v>72.98246483980324</v>
       </c>
       <c r="L33" t="n">
-        <v>70.58630766924078</v>
+        <v>72.98246483980324</v>
       </c>
       <c r="M33" t="n">
-        <v>60.96011253634639</v>
+        <v>63.04330151044141</v>
       </c>
       <c r="N33" t="n">
-        <v>14.26424647761509</v>
+        <v>14.67176025212302</v>
       </c>
       <c r="O33" t="n">
-        <v>46.21271668695464</v>
+        <v>54.05371759892246</v>
       </c>
       <c r="P33" t="n">
-        <v>84.66682296714824</v>
+        <v>87.56014098672408</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.58630766924078</v>
+        <v>72.98246483980324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>71.11642202994646</v>
+        <v>70.31185367037286</v>
       </c>
       <c r="C34" t="n">
-        <v>71.11642202994646</v>
+        <v>70.31185367037286</v>
       </c>
       <c r="D34" t="n">
-        <v>71.11642202994646</v>
+        <v>70.31185367037286</v>
       </c>
       <c r="E34" t="n">
-        <v>71.11642202994646</v>
+        <v>70.31185367037286</v>
       </c>
       <c r="F34" t="n">
-        <v>71.67277586283335</v>
+        <v>70.8461864218998</v>
       </c>
       <c r="G34" t="n">
-        <v>76.74862814910932</v>
+        <v>75.92216062037932</v>
       </c>
       <c r="H34" t="n">
-        <v>84.457219285937</v>
+        <v>83.62718183686943</v>
       </c>
       <c r="I34" t="n">
-        <v>59.06152444138781</v>
+        <v>58.32027150355398</v>
       </c>
       <c r="J34" t="n">
-        <v>73.49559031681824</v>
+        <v>72.65074183312362</v>
       </c>
       <c r="K34" t="n">
-        <v>71.11642202994646</v>
+        <v>70.31185367037286</v>
       </c>
       <c r="L34" t="n">
-        <v>71.11642202994646</v>
+        <v>70.31185367037286</v>
       </c>
       <c r="M34" t="n">
-        <v>61.3417948760542</v>
+        <v>60.72308715267796</v>
       </c>
       <c r="N34" t="n">
-        <v>14.79436083831988</v>
+        <v>14.20878417032224</v>
       </c>
       <c r="O34" t="n">
-        <v>46.74283104765964</v>
+        <v>46.03303219413886</v>
       </c>
       <c r="P34" t="n">
-        <v>85.19693732785295</v>
+        <v>84.33762104538653</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.11642202994646</v>
+        <v>70.31185367037286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>71.87144122920294</v>
+        <v>70.83990683803758</v>
       </c>
       <c r="C35" t="n">
-        <v>71.87144122920294</v>
+        <v>70.83990683803758</v>
       </c>
       <c r="D35" t="n">
-        <v>71.87144122920294</v>
+        <v>70.83990683803758</v>
       </c>
       <c r="E35" t="n">
-        <v>71.87144122920294</v>
+        <v>70.83990683803758</v>
       </c>
       <c r="F35" t="n">
-        <v>72.46390081835423</v>
+        <v>71.39409745344982</v>
       </c>
       <c r="G35" t="n">
-        <v>77.72614974938165</v>
+        <v>76.45021378804293</v>
       </c>
       <c r="H35" t="n">
-        <v>85.84199472828132</v>
+        <v>84.12883234615104</v>
       </c>
       <c r="I35" t="n">
-        <v>57.03107300015873</v>
+        <v>58.83188115648711</v>
       </c>
       <c r="J35" t="n">
-        <v>74.66586434677784</v>
+        <v>73.20982443207851</v>
       </c>
       <c r="K35" t="n">
-        <v>71.87144122920294</v>
+        <v>70.83990683803758</v>
       </c>
       <c r="L35" t="n">
-        <v>71.87144122920294</v>
+        <v>70.83990683803758</v>
       </c>
       <c r="M35" t="n">
-        <v>62.28591302134894</v>
+        <v>61.10328543339629</v>
       </c>
       <c r="N35" t="n">
-        <v>13.32435602740913</v>
+        <v>14.7368373379861</v>
       </c>
       <c r="O35" t="n">
-        <v>52.86596041206273</v>
+        <v>46.56108536180292</v>
       </c>
       <c r="P35" t="n">
-        <v>86.5082125296496</v>
+        <v>84.8656742130503</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.87144122920294</v>
+        <v>70.83990683803758</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>71.58126426554351</v>
+      </c>
+      <c r="C36" t="n">
+        <v>71.58126426554351</v>
+      </c>
+      <c r="D36" t="n">
+        <v>71.58126426554351</v>
+      </c>
+      <c r="E36" t="n">
+        <v>71.58126426554351</v>
+      </c>
+      <c r="F36" t="n">
+        <v>72.17133183191453</v>
+      </c>
+      <c r="G36" t="n">
+        <v>77.41233472431088</v>
+      </c>
+      <c r="H36" t="n">
+        <v>85.49541242857086</v>
+      </c>
+      <c r="I36" t="n">
+        <v>56.80081320135145</v>
+      </c>
+      <c r="J36" t="n">
+        <v>74.36440505453879</v>
+      </c>
+      <c r="K36" t="n">
+        <v>71.58126426554351</v>
+      </c>
+      <c r="L36" t="n">
+        <v>71.58126426554351</v>
+      </c>
+      <c r="M36" t="n">
+        <v>62.03443709697375</v>
+      </c>
+      <c r="N36" t="n">
+        <v>13.27055967786299</v>
+      </c>
+      <c r="O36" t="n">
+        <v>52.65251702466229</v>
+      </c>
+      <c r="P36" t="n">
+        <v>86.15894041246185</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>71.58126426554351</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
-        <v>77.2182453687835</v>
-      </c>
-      <c r="C36" t="n">
-        <v>77.2182453687835</v>
-      </c>
-      <c r="D36" t="n">
-        <v>77.2182453687835</v>
-      </c>
-      <c r="E36" t="n">
-        <v>77.2182453687835</v>
-      </c>
-      <c r="F36" t="n">
-        <v>78.13427898763702</v>
-      </c>
-      <c r="G36" t="n">
-        <v>83.29475953000367</v>
-      </c>
-      <c r="H36" t="n">
-        <v>91.58687558400439</v>
-      </c>
-      <c r="I36" t="n">
-        <v>57.63618460677228</v>
-      </c>
-      <c r="J36" t="n">
-        <v>81.10085979759006</v>
-      </c>
-      <c r="K36" t="n">
-        <v>77.2182453687835</v>
-      </c>
-      <c r="L36" t="n">
-        <v>77.2182453687835</v>
-      </c>
-      <c r="M36" t="n">
-        <v>66.5348621557204</v>
-      </c>
-      <c r="N36" t="n">
-        <v>16.45310375658325</v>
-      </c>
-      <c r="O36" t="n">
-        <v>68.32238480233512</v>
-      </c>
-      <c r="P36" t="n">
-        <v>92.40953077183387</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>77.2182453687835</v>
+      <c r="B37" t="n">
+        <v>76.88777868080638</v>
+      </c>
+      <c r="C37" t="n">
+        <v>76.88777868080638</v>
+      </c>
+      <c r="D37" t="n">
+        <v>76.88777868080638</v>
+      </c>
+      <c r="E37" t="n">
+        <v>76.88777868080638</v>
+      </c>
+      <c r="F37" t="n">
+        <v>77.79989200084124</v>
+      </c>
+      <c r="G37" t="n">
+        <v>82.93828751777043</v>
+      </c>
+      <c r="H37" t="n">
+        <v>91.19491625765774</v>
+      </c>
+      <c r="I37" t="n">
+        <v>57.38952218983088</v>
+      </c>
+      <c r="J37" t="n">
+        <v>80.7537768976691</v>
+      </c>
+      <c r="K37" t="n">
+        <v>76.88777868080638</v>
+      </c>
+      <c r="L37" t="n">
+        <v>76.88777868080638</v>
+      </c>
+      <c r="M37" t="n">
+        <v>66.25011655671585</v>
+      </c>
+      <c r="N37" t="n">
+        <v>16.38269031116741</v>
+      </c>
+      <c r="O37" t="n">
+        <v>68.02998924073573</v>
+      </c>
+      <c r="P37" t="n">
+        <v>92.01405077321644</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>76.88777868080638</v>
       </c>
     </row>
   </sheetData>
